--- a/input_example.xlsx
+++ b/input_example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\studie\Farm_Squire\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\studie\Farm-Squire\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B850EA6-3170-414F-A603-8CE962B41882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE593A34-7F49-4591-99D6-7FF5DF3FA08B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="50910" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="estate" sheetId="1" r:id="rId1"/>
@@ -2020,7 +2020,7 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2300,9 +2300,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C995"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3711,7 +3711,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFB59E6B-6A0D-4958-96A8-6F5329EFB25E}">
   <dimension ref="A1:AA973"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>

--- a/input_example.xlsx
+++ b/input_example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\studie\Farm-Squire\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE593A34-7F49-4591-99D6-7FF5DF3FA08B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A7B1E8-CCA4-4234-81BC-D19402F0FE7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="50910" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2302,7 +2302,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
